--- a/_templates/Predictive-Maintenance-Board/Sensor_Data_Barriers.xlsx
+++ b/_templates/Predictive-Maintenance-Board/Sensor_Data_Barriers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Predictive-Maintainance-Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Predictive-Maintenance-Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4135CA-B331-3140-9821-D2C2071D6E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF796F-50A7-C545-8674-D9A16913321D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54300" yWindow="-4160" windowWidth="42280" windowHeight="28600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Value1_Max</t>
   </si>
@@ -71,18 +65,15 @@
   </si>
   <si>
     <t>Value7_Warning</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +427,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -448,90 +440,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2">
         <v>80</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>80</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="2">
         <v>60</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>60</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>60</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
+      <c r="M2" s="2">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
